--- a/Python/result-cn/result_battlepass.xlsx
+++ b/Python/result-cn/result_battlepass.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,46 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>typeId(uint32)*</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>dropItem(array.string)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>PaidDrop(uint32)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>PaidBox(uint32)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>PaidReward(array.uint32)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>id(key.uint32)*</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>commentary(string)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>typeId(uint32)*</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>dropItem(array.string)</t>
         </is>
       </c>
@@ -491,9 +531,39 @@
           <t>200曲奇</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>10002:200:200:10000</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>9102</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>300104|1</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>9102</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>冰雪女套装</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3001041:1:1:10000|3001043:1:1:10000</t>
         </is>
       </c>
     </row>
@@ -513,16 +583,46 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1707</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>300曲奇</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10002:300:300:10000</t>
+          <t>测试掉落1</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>10001:1:1:1|10002:1:1:1</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>500006</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>500006|1</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>测试掉落1</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>10001:1:1:1|10002:1:1:1</t>
         </is>
       </c>
     </row>
@@ -540,16 +640,44 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8230</v>
+        <v>1707</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1身份碎片</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>620001:1:1:10000</t>
+          <t>300曲奇</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>10002:300:300:10000</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>7135</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>620001|2</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>7135</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>身份碎片*2</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>620001:2:2:10000</t>
         </is>
       </c>
     </row>
@@ -567,16 +695,44 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1020</v>
+        <v>8230</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>奖杯之路：数量360</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>10003:5:5:1</t>
+          <t>1身份碎片</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>620001:1:1:10000</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1707</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>10002|300</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>1707</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>300曲奇</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>10002:300:300:10000</t>
         </is>
       </c>
     </row>
@@ -594,16 +750,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1816</v>
+        <v>1020</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>身份卡</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>160001:1:1:10000</t>
+          <t>奖杯之路：数量360</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10003:5:5:1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>7107</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>10008|50</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>7107</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>金星50</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>10007:50:50:10000</t>
         </is>
       </c>
     </row>
@@ -621,16 +807,44 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1692</v>
+        <v>1816</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>200曲奇</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>10002:200:200:10000</t>
+          <t>身份卡</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>160001:1:1:10000</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1707</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>10002|300</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>1707</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>300曲奇</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>10002:300:300:10000</t>
         </is>
       </c>
     </row>
@@ -648,16 +862,44 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8230</v>
+        <v>1692</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1身份碎片</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>620001:1:1:10000</t>
+          <t>200曲奇</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>10002:200:200:10000</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>8231</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>620002|1</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>8231</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1皮肤碎片</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>620002:1:1:10000</t>
         </is>
       </c>
     </row>
@@ -675,16 +917,44 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1707</v>
+        <v>8230</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>300曲奇</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>10002:300:300:10000</t>
+          <t>1身份碎片</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>620001:1:1:10000</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>7135</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>620001|2</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>7135</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>身份碎片*2</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>620001:2:2:10000</t>
         </is>
       </c>
     </row>
@@ -702,16 +972,46 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9112</v>
+        <v>1707</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>第六赛季免费线帽子</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>200434:1:1:10000</t>
+          <t>300曲奇</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>10002:300:300:10000</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1691</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>10003|10</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>1691</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>10甜甜圈</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>10003:10:10:10000</t>
         </is>
       </c>
     </row>
@@ -729,16 +1029,44 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1692</v>
+        <v>9112</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>200曲奇</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>10002:200:200:10000</t>
+          <t>第六赛季免费线帽子</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>200434:1:1:10000</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>9103</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>260038|1</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>9103</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>冰雪女小卡背景</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>260038:1:1:10000</t>
         </is>
       </c>
     </row>
@@ -758,16 +1086,46 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1020</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>奖杯之路：数量360</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>10003:5:5:1</t>
+          <t>测试掉落1</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10001:1:1:1|10002:1:1:1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>500006</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>500006|1</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>测试掉落1</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>10001:1:1:1|10002:1:1:1</t>
         </is>
       </c>
     </row>
@@ -785,16 +1143,44 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1707</v>
+        <v>1692</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>300曲奇</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>10002:300:300:10000</t>
+          <t>200曲奇</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>10002:200:200:10000</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>3670</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>330022|1</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>3670</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>商城满500-100折扣券</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>330022:1:1:10000</t>
         </is>
       </c>
     </row>
@@ -812,16 +1198,44 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1816</v>
+        <v>1020</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>身份卡</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>160001:1:1:10000</t>
+          <t>奖杯之路：数量360</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>10003:5:5:1</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1707</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>10002|300</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>1707</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>300曲奇</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>10002:300:300:10000</t>
         </is>
       </c>
     </row>
@@ -839,16 +1253,44 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1692</v>
+        <v>1707</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>200曲奇</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>10002:200:200:10000</t>
+          <t>300曲奇</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>10002:300:300:10000</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>7135</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>620001|2</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>7135</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>身份碎片*2</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>620001:2:2:10000</t>
         </is>
       </c>
     </row>
@@ -866,16 +1308,44 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3670</v>
+        <v>1816</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>商城满500-100折扣券</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>330022:1:1:10000</t>
+          <t>身份卡</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>160001:1:1:10000</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>7107</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>10008|50</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>7107</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>金星50</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>10007:50:50:10000</t>
         </is>
       </c>
     </row>
@@ -893,16 +1363,44 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1707</v>
+        <v>1692</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>300曲奇</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>10002:300:300:10000</t>
+          <t>200曲奇</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10002:200:200:10000</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>8231</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>620002|1</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>8231</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1皮肤碎片</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>620002:1:1:10000</t>
         </is>
       </c>
     </row>
@@ -920,16 +1418,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1020</v>
+        <v>3670</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>奖杯之路：数量360</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>10003:5:5:1</t>
+          <t>商城满500-100折扣券</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>330022:1:1:10000</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1691</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>10003|10</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>1691</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>10甜甜圈</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>10003:10:10:10000</t>
         </is>
       </c>
     </row>
@@ -947,16 +1475,44 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7135</v>
+        <v>1707</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>身份碎片*2</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>620001:2:2:10000</t>
+          <t>300曲奇</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10002:300:300:10000</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1707</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>10002|300</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>1707</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>300曲奇</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>10002:300:300:10000</t>
         </is>
       </c>
     </row>
@@ -973,6 +1529,49 @@
           <t>10003|5</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>1020</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>奖杯之路：数量360</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>10003:5:5:1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>500006</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>500006|1</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>测试掉落1</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>10001:1:1:1|10002:1:1:1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -985,6 +1584,47 @@
       <c r="D21" t="inlineStr">
         <is>
           <t>620001|2</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>7135</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>身份碎片*2</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>620001:2:2:10000</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>9104</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>270060|1</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>9104</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>冰雪女小卡姿势</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>270060:1:1:10000</t>
         </is>
       </c>
     </row>

--- a/Python/result-cn/result_battlepass.xlsx
+++ b/Python/result-cn/result_battlepass.xlsx
@@ -520,7 +520,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10002|500</t>
+          <t>10002|1000</t>
         </is>
       </c>
       <c r="F2" t="n">
